--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Arch\root\ScheduleReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F9EED4-1954-4083-A9E1-C38966E421E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B80665-DD21-43DB-850F-1B09F88A66B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6375" yWindow="1275" windowWidth="21600" windowHeight="11385" tabRatio="922" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6387" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6387" uniqueCount="1056">
   <si>
     <t>DAP1 WEEK 6</t>
   </si>
@@ -3727,12 +3727,32 @@
     <t>升学指导 - S303</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
+  <si>
+    <t>AP Calculus BC  Class 2 - Robi - S202</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>US History Class 1 - Megan - S502</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP Physics C: M Class 1 - Roger - S105</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP Physics C: M  Class 2 - Roger - S303</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP Computer Science Class 1 - Mr. Li Yutong - S303</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="58">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4080,6 +4100,12 @@
     </font>
     <font>
       <sz val="16"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -4693,7 +4719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="698">
+  <cellXfs count="703">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6775,6 +6801,21 @@
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -7076,8 +7117,8 @@
   </sheetPr>
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -7293,8 +7334,8 @@
       <c r="E11" s="102" t="s">
         <v>231</v>
       </c>
-      <c r="F11" s="102" t="s">
-        <v>231</v>
+      <c r="F11" s="702" t="s">
+        <v>1055</v>
       </c>
       <c r="G11" s="101" t="s">
         <v>230</v>
@@ -7625,8 +7666,8 @@
       <c r="E27" s="201" t="s">
         <v>261</v>
       </c>
-      <c r="F27" s="112" t="s">
-        <v>262</v>
+      <c r="F27" s="698" t="s">
+        <v>1051</v>
       </c>
       <c r="G27" s="201" t="s">
         <v>263</v>
@@ -8150,8 +8191,8 @@
       <c r="D53" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="109" t="s">
-        <v>294</v>
+      <c r="E53" s="699" t="s">
+        <v>1052</v>
       </c>
       <c r="F53" s="99" t="s">
         <v>216</v>
@@ -8336,8 +8377,8 @@
       <c r="D62" s="277" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="109" t="s">
-        <v>294</v>
+      <c r="E62" s="699" t="s">
+        <v>1052</v>
       </c>
       <c r="F62" s="259" t="s">
         <v>300</v>
@@ -8484,8 +8525,8 @@
         <v>6</v>
       </c>
       <c r="D70" s="280"/>
-      <c r="E70" s="142" t="s">
-        <v>267</v>
+      <c r="E70" s="700" t="s">
+        <v>1053</v>
       </c>
       <c r="F70" s="262"/>
       <c r="G70" s="142" t="s">
@@ -8558,8 +8599,8 @@
       <c r="B74" s="278"/>
       <c r="C74" s="290"/>
       <c r="D74" s="278"/>
-      <c r="E74" s="124" t="s">
-        <v>276</v>
+      <c r="E74" s="701" t="s">
+        <v>1054</v>
       </c>
       <c r="F74" s="259"/>
       <c r="G74" s="113" t="s">
